--- a/data/point-data.xlsx
+++ b/data/point-data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea\auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F3BFD7-3609-40AE-B346-5702FB3CF426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA00AEB7-2B2A-4A8B-A53B-FDC2037CA09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="userName" sheetId="1" r:id="rId1"/>
+    <sheet name="changePoint" sheetId="2" r:id="rId2"/>
+    <sheet name="exchangePoint" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,19 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add-point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subtract-point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>test_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,7 +37,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exchangePoint</t>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加的积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少的积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,86 +379,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300B3A8D-EAE5-43A4-A714-4D47B4CBF2F9}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="C2" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3">
+        <v>-100</v>
+      </c>
+      <c r="C3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
+      </c>
+      <c r="B4" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300B3A8D-EAE5-43A4-A714-4D47B4CBF2F9}">
-  <dimension ref="A1:A4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB7BD1-748E-42B5-86F2-9E70897726FB}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8000</v>
+      <c r="A2" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>